--- a/Stage.xlsx
+++ b/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2023後期Bチーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCAF07F-AE09-4795-9B7E-9E65E8C9C0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50354EB-07CA-4EE1-9B49-E69BE5FEF2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="CX10" sqref="CX10"/>
+    <sheetView tabSelected="1" topLeftCell="AZ7" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="CV14" sqref="CV14:DD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6248,13 +6248,13 @@
         <v>0</v>
       </c>
       <c r="BZ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC14" s="1">
         <v>0</v>
@@ -6275,31 +6275,31 @@
         <v>0</v>
       </c>
       <c r="CI14" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CJ14" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CK14" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CL14" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CM14" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CN14" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CO14" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CP14" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CQ14" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CR14" s="1">
         <v>0</v>
@@ -6314,31 +6314,31 @@
         <v>0</v>
       </c>
       <c r="CV14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CW14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CX14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CY14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CZ14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DA14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DB14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DC14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DD14" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DE14" s="1">
         <v>0</v>
@@ -6631,13 +6631,13 @@
         <v>0</v>
       </c>
       <c r="BZ15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC15" s="1">
         <v>0</v>
@@ -7014,13 +7014,13 @@
         <v>0</v>
       </c>
       <c r="BZ16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC16" s="1">
         <v>0</v>
@@ -7397,13 +7397,13 @@
         <v>0</v>
       </c>
       <c r="BZ17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC17" s="1">
         <v>0</v>
@@ -7780,13 +7780,13 @@
         <v>0</v>
       </c>
       <c r="BZ18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC18" s="1">
         <v>0</v>
@@ -8163,13 +8163,13 @@
         <v>0</v>
       </c>
       <c r="BZ19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC19" s="1">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="BZ20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC20" s="1">
         <v>0</v>
@@ -8929,13 +8929,13 @@
         <v>0</v>
       </c>
       <c r="BZ21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC21" s="1">
         <v>0</v>
@@ -9312,13 +9312,13 @@
         <v>0</v>
       </c>
       <c r="BZ22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC22" s="1">
         <v>0</v>
@@ -9695,13 +9695,13 @@
         <v>0</v>
       </c>
       <c r="BZ23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC23" s="1">
         <v>0</v>
@@ -10078,13 +10078,13 @@
         <v>1</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC24" s="1">
         <v>1</v>

--- a/Stage.xlsx
+++ b/Stage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2023後期Bチーム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokiy\OneDrive\ドキュメント\GFF2024_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCAF07F-AE09-4795-9B7E-9E65E8C9C0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E513B-5940-41CF-9134-20CC55172B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -1027,16 +1027,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="CX10" sqref="CX10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BC17" sqref="BC17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="127" width="3.125" customWidth="1"/>
+    <col min="1" max="127" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>-1</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>-1</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>-1</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>-1</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>-1</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>-1</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>-1</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>-1</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>-1</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>-1</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>-1</v>
       </c>
@@ -5395,43 +5395,43 @@
         <v>0</v>
       </c>
       <c r="AW12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BJ12" s="1">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>-1</v>
       </c>
@@ -5775,49 +5775,49 @@
         <v>0</v>
       </c>
       <c r="AV13" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ13" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="BK13" s="1">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>-1</v>
       </c>
@@ -6158,49 +6158,49 @@
         <v>0</v>
       </c>
       <c r="AV14" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ14" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="BK14" s="1">
         <v>0</v>
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>-1</v>
       </c>
@@ -6544,43 +6544,43 @@
         <v>0</v>
       </c>
       <c r="AW15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BJ15" s="1">
         <v>0</v>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>-1</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>-1</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>-1</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>-1</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>-1</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="1">
         <v>0</v>
@@ -8420,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="1">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>-1</v>
       </c>
@@ -8788,10 +8788,10 @@
         <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="1">
         <v>0</v>
@@ -8803,10 +8803,10 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>-1</v>
       </c>
@@ -9168,13 +9168,13 @@
         <v>0</v>
       </c>
       <c r="AD22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="1">
         <v>0</v>
@@ -9186,13 +9186,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -9462,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>-1</v>
       </c>
@@ -9548,16 +9548,16 @@
         <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="1">
         <v>0</v>
@@ -9569,16 +9569,16 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="1">
         <v>0</v>
@@ -9845,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -9931,16 +9931,16 @@
         <v>1</v>
       </c>
       <c r="AC24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="1">
         <v>0</v>
@@ -9952,16 +9952,16 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN24" s="1">
         <v>1</v>
@@ -10228,7 +10228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>3</v>
       </c>

--- a/Stage.xlsx
+++ b/Stage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2023後期Bチーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50354EB-07CA-4EE1-9B49-E69BE5FEF2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E14A0A-7C94-4C9F-9B70-E06BEA1C5D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,18 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>鳥</t>
+    <rPh sb="0" eb="1">
+      <t>トリ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,7 +686,17 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -1027,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ7" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="CV14" sqref="CV14:DD14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW21" sqref="AW20:AX21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4966,7 +4988,7 @@
       <c r="AG11" s="1">
         <v>0</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AI11" s="1">
@@ -12529,18 +12551,21 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:DW30">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
       <formula>20</formula>
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="鳥">
+      <formula>NOT(ISERROR(SEARCH("鳥",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stage.xlsx
+++ b/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2023後期Bチーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CE800919-E223-475F-896F-898A8F33D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575C0467-908C-4E3C-B5B1-9C8F6B4E435C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="25065" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="25215" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
@@ -685,7 +685,17 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="9" tint="-0.499984740745262"/>
@@ -1068,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EW61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19"/>
+    <sheetView tabSelected="1" topLeftCell="AD19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DK37" sqref="DK37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14692,67 +14702,67 @@
         <v>120</v>
       </c>
       <c r="CD30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CE30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CF30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CG30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CH30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CI30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CJ30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CK30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CL30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CM30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CN30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CO30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CP30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CQ30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CR30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CS30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CT30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CU30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CV30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CW30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CX30" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CY30" s="1">
         <v>120</v>
@@ -15213,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="CX31" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY31" s="1">
         <v>120</v>
@@ -15674,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="CX32" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY32" s="1">
         <v>120</v>
@@ -16135,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="CX33" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY33" s="1">
         <v>120</v>
@@ -16596,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="CX34" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY34" s="1">
         <v>120</v>
@@ -17057,7 +17067,7 @@
         <v>0</v>
       </c>
       <c r="CX35" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY35" s="1">
         <v>120</v>
@@ -17518,7 +17528,7 @@
         <v>0</v>
       </c>
       <c r="CX36" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY36" s="1">
         <v>120</v>
@@ -17949,7 +17959,7 @@
         <v>0</v>
       </c>
       <c r="CN37" s="1">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="CO37" s="1">
         <v>0</v>
@@ -19550,49 +19560,49 @@
         <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="1">
         <v>0</v>
@@ -25295,73 +25305,73 @@
         <v>110</v>
       </c>
       <c r="CD53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CE53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CF53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CG53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CH53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CI53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CJ53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CK53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CL53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CM53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CN53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CO53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CP53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CQ53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CR53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CS53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CT53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CU53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CV53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CW53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CX53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CY53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="CZ53" s="1">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="DA53" s="1">
         <v>100</v>
@@ -28759,31 +28769,35 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:EW60">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="notBetween">
       <formula>0</formula>
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>200</formula>
       <formula>204</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
       <formula>120</formula>
       <formula>125</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="between">
       <formula>110</formula>
       <formula>115</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
       <formula>100</formula>
       <formula>105</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>210</formula>
+      <formula>211</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stage.xlsx
+++ b/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2023後期Bチーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575C0467-908C-4E3C-B5B1-9C8F6B4E435C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B7FBCA7-35CB-43D1-B1FD-C40AEC410652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="0" windowWidth="25215" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:EW61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DK37" sqref="DK37"/>
+      <selection activeCell="DC34" sqref="DC34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15223,13 +15223,13 @@
         <v>0</v>
       </c>
       <c r="CX31" s="1">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="CY31" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="CZ31" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DA31" s="1">
         <v>0</v>
@@ -15684,13 +15684,13 @@
         <v>0</v>
       </c>
       <c r="CX32" s="1">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="CY32" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="CZ32" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DA32" s="1">
         <v>0</v>
@@ -16145,13 +16145,13 @@
         <v>0</v>
       </c>
       <c r="CX33" s="1">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="CY33" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="CZ33" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DA33" s="1">
         <v>0</v>
@@ -16606,13 +16606,13 @@
         <v>0</v>
       </c>
       <c r="CX34" s="1">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="CY34" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="CZ34" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DA34" s="1">
         <v>0</v>
@@ -17067,13 +17067,13 @@
         <v>0</v>
       </c>
       <c r="CX35" s="1">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="CY35" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="CZ35" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="DA35" s="1">
         <v>0</v>
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="CX37" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY37" s="1">
         <v>120</v>
@@ -18450,7 +18450,7 @@
         <v>0</v>
       </c>
       <c r="CX38" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY38" s="1">
         <v>120</v>
@@ -18911,7 +18911,7 @@
         <v>0</v>
       </c>
       <c r="CX39" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY39" s="1">
         <v>120</v>
@@ -19372,7 +19372,7 @@
         <v>0</v>
       </c>
       <c r="CX40" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY40" s="1">
         <v>120</v>
@@ -19833,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="CX41" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY41" s="1">
         <v>120</v>
@@ -20294,7 +20294,7 @@
         <v>0</v>
       </c>
       <c r="CX42" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY42" s="1">
         <v>120</v>
@@ -20755,7 +20755,7 @@
         <v>0</v>
       </c>
       <c r="CX43" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY43" s="1">
         <v>120</v>
@@ -21216,7 +21216,7 @@
         <v>0</v>
       </c>
       <c r="CX44" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY44" s="1">
         <v>120</v>
@@ -21677,7 +21677,7 @@
         <v>0</v>
       </c>
       <c r="CX45" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY45" s="1">
         <v>120</v>
@@ -22138,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="CX46" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY46" s="1">
         <v>120</v>
@@ -22599,7 +22599,7 @@
         <v>0</v>
       </c>
       <c r="CX47" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY47" s="1">
         <v>120</v>
@@ -23060,7 +23060,7 @@
         <v>0</v>
       </c>
       <c r="CX48" s="1">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CY48" s="1">
         <v>120</v>
